--- a/src/main/resources/TestData/Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Leave_Scenarios.xlsx
@@ -3366,12 +3366,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16983,9 +16984,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22407,9 +22409,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.7755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27831,12 +27833,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="5" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="5" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38588,9 +38591,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38628,11 +38631,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42809,7 +42812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/TestData/Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Leave_Scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15472" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15472" uniqueCount="528">
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -1613,7 +1613,738 @@
     <t xml:space="preserve">Without Probation</t>
   </si>
   <si>
+    <t xml:space="preserve">Custom Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: No</t>
+  </si>
+  <si>
     <t xml:space="preserve">Employee Probation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Calendar Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: No,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves from joining date, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Not allowed,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Half,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month,
+ Accrual point: Begin of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Month, Accrual point: End of month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: Begin of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Quarter, Accrual point: End of Quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave Scenario is--
+Leave Cycle: Financial Year,
+Leave Probation Period: According to Employee Probation period which is 30.0 days,
+Pro Rata: Yes,
+Probation Status: Start calculating leaves after probation period, Mid Joining Leaves: Full,
+Accrual: Yes,
+Accrual time frame: Biannual</t>
   </si>
   <si>
     <t xml:space="preserve">Leave Scenario is--
@@ -3733,19 +4464,19 @@
   </sheetPr>
   <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="14.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14499,13 +15230,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="14.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19922,18 +20653,18 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="14.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20001,7 +20732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -20012,7 +20743,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>12</v>
@@ -20066,7 +20797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -20077,7 +20808,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>12</v>
@@ -20131,7 +20862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -20142,7 +20873,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>12</v>
@@ -20196,7 +20927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -20207,7 +20938,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>12</v>
@@ -20261,7 +20992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -20272,7 +21003,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>12</v>
@@ -20326,7 +21057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -20337,7 +21068,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>12</v>
@@ -20391,7 +21122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -20402,7 +21133,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>12</v>
@@ -20456,7 +21187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -20467,7 +21198,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>12</v>
@@ -20521,7 +21252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -20532,7 +21263,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>12</v>
@@ -20586,7 +21317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -20597,7 +21328,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>12</v>
@@ -20651,7 +21382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -20662,7 +21393,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>12</v>
@@ -20716,7 +21447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -20727,7 +21458,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>12</v>
@@ -20781,7 +21512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -20792,7 +21523,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>12</v>
@@ -20846,7 +21577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -20857,7 +21588,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>12</v>
@@ -20911,7 +21642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -20922,7 +21653,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>12</v>
@@ -20976,7 +21707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -20987,7 +21718,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>12</v>
@@ -21041,7 +21772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -21052,7 +21783,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>12</v>
@@ -21106,7 +21837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -21117,7 +21848,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>12</v>
@@ -21171,7 +21902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -21182,7 +21913,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>12</v>
@@ -21236,7 +21967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -21247,7 +21978,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>12</v>
@@ -21301,7 +22032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -21312,7 +22043,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>12</v>
@@ -21366,7 +22097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -21377,7 +22108,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>12</v>
@@ -21431,7 +22162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -21442,7 +22173,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>12</v>
@@ -21496,7 +22227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -21507,7 +22238,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>12</v>
@@ -21561,7 +22292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -21572,7 +22303,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>12</v>
@@ -21626,7 +22357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -21637,7 +22368,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>12</v>
@@ -21691,7 +22422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -21702,7 +22433,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>12</v>
@@ -21756,7 +22487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -21767,7 +22498,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>12</v>
@@ -21821,7 +22552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -21832,7 +22563,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>12</v>
@@ -21886,7 +22617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -21897,7 +22628,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>12</v>
@@ -21951,7 +22682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -21962,7 +22693,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>12</v>
@@ -22016,7 +22747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -22027,7 +22758,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>12</v>
@@ -22081,7 +22812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
@@ -22092,7 +22823,7 @@
         <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>12</v>
@@ -22146,7 +22877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -22157,7 +22888,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>12</v>
@@ -22211,7 +22942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -22222,7 +22953,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>12</v>
@@ -22276,7 +23007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -22287,7 +23018,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>12</v>
@@ -22341,7 +23072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -22352,7 +23083,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>12</v>
@@ -22406,7 +23137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -22417,7 +23148,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>12</v>
@@ -22471,7 +23202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -22482,7 +23213,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>12</v>
@@ -22536,7 +23267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -22547,7 +23278,7 @@
         <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>12</v>
@@ -22601,7 +23332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -22612,7 +23343,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>12</v>
@@ -22666,7 +23397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -22677,7 +23408,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>12</v>
@@ -22731,7 +23462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -22742,7 +23473,7 @@
         <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>12</v>
@@ -22796,7 +23527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -22807,7 +23538,7 @@
         <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>12</v>
@@ -22861,7 +23592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -22872,7 +23603,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>12</v>
@@ -22926,7 +23657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
@@ -22937,7 +23668,7 @@
         <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>12</v>
@@ -22991,7 +23722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -23002,7 +23733,7 @@
         <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>12</v>
@@ -23056,7 +23787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -23067,7 +23798,7 @@
         <v>23</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>12</v>
@@ -23121,7 +23852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
@@ -23132,7 +23863,7 @@
         <v>23</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>12</v>
@@ -23186,7 +23917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -23197,7 +23928,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>12</v>
@@ -23251,7 +23982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="91.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -23262,7 +23993,7 @@
         <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>12</v>
@@ -23316,7 +24047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -23327,7 +24058,7 @@
         <v>23</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>12</v>
@@ -23381,7 +24112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -23392,7 +24123,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>12</v>
@@ -23446,7 +24177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -23457,7 +24188,7 @@
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>12</v>
@@ -23511,7 +24242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
@@ -23522,7 +24253,7 @@
         <v>23</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>12</v>
@@ -23576,7 +24307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -23587,7 +24318,7 @@
         <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>12</v>
@@ -23641,7 +24372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -23652,7 +24383,7 @@
         <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>12</v>
@@ -23706,7 +24437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -23717,7 +24448,7 @@
         <v>23</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>12</v>
@@ -23771,7 +24502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -23782,7 +24513,7 @@
         <v>23</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>12</v>
@@ -23836,7 +24567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -23847,7 +24578,7 @@
         <v>23</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>12</v>
@@ -23901,7 +24632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -23912,7 +24643,7 @@
         <v>23</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>12</v>
@@ -23966,7 +24697,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -23977,7 +24708,7 @@
         <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>12</v>
@@ -24031,7 +24762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
@@ -24042,7 +24773,7 @@
         <v>23</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>12</v>
@@ -24096,7 +24827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -24107,7 +24838,7 @@
         <v>23</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>12</v>
@@ -24161,7 +24892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
@@ -24172,7 +24903,7 @@
         <v>23</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>12</v>
@@ -24226,7 +24957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -24237,7 +24968,7 @@
         <v>23</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>12</v>
@@ -24291,7 +25022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="113.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
@@ -24302,7 +25033,7 @@
         <v>23</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>12</v>
@@ -24356,7 +25087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -24367,7 +25098,7 @@
         <v>23</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>12</v>
@@ -24421,7 +25152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
@@ -24432,7 +25163,7 @@
         <v>23</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>12</v>
@@ -24486,7 +25217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -24497,7 +25228,7 @@
         <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>12</v>
@@ -24551,7 +25282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
@@ -24562,7 +25293,7 @@
         <v>23</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>12</v>
@@ -24616,7 +25347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
@@ -24627,7 +25358,7 @@
         <v>23</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>12</v>
@@ -24681,7 +25412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -24692,7 +25423,7 @@
         <v>23</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>12</v>
@@ -24746,7 +25477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
@@ -24757,7 +25488,7 @@
         <v>23</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>12</v>
@@ -24811,7 +25542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -24822,7 +25553,7 @@
         <v>23</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>12</v>
@@ -24876,7 +25607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
@@ -24887,7 +25618,7 @@
         <v>23</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>12</v>
@@ -24941,7 +25672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
@@ -24952,7 +25683,7 @@
         <v>23</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>12</v>
@@ -25006,7 +25737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -25017,7 +25748,7 @@
         <v>23</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>12</v>
@@ -25071,7 +25802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
@@ -25082,7 +25813,7 @@
         <v>23</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>12</v>
@@ -25136,7 +25867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
@@ -25147,7 +25878,7 @@
         <v>23</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>12</v>
@@ -25201,7 +25932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
@@ -25212,7 +25943,7 @@
         <v>23</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>12</v>
@@ -25266,7 +25997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -25277,7 +26008,7 @@
         <v>23</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>12</v>
@@ -25349,15 +26080,15 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25425,18 +26156,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>12</v>
@@ -25454,7 +26185,7 @@
         <v>23</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>26</v>
@@ -25490,18 +26221,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>12</v>
@@ -25519,7 +26250,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>23</v>
@@ -25555,18 +26286,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>12</v>
@@ -25584,7 +26315,7 @@
         <v>23</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>23</v>
@@ -25620,18 +26351,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>12</v>
@@ -25649,7 +26380,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>23</v>
@@ -25685,18 +26416,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>12</v>
@@ -25714,7 +26445,7 @@
         <v>23</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>23</v>
@@ -25750,18 +26481,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>12</v>
@@ -25779,7 +26510,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>23</v>
@@ -25815,18 +26546,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>12</v>
@@ -25844,7 +26575,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>26</v>
@@ -25880,18 +26611,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>12</v>
@@ -25909,7 +26640,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>26</v>
@@ -25945,18 +26676,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>12</v>
@@ -25974,7 +26705,7 @@
         <v>23</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>26</v>
@@ -26010,18 +26741,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>12</v>
@@ -26039,7 +26770,7 @@
         <v>23</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>26</v>
@@ -26075,18 +26806,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>12</v>
@@ -26104,7 +26835,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>26</v>
@@ -26140,18 +26871,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>12</v>
@@ -26169,7 +26900,7 @@
         <v>23</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>23</v>
@@ -26205,18 +26936,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>12</v>
@@ -26234,7 +26965,7 @@
         <v>23</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>23</v>
@@ -26270,18 +27001,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>12</v>
@@ -26299,7 +27030,7 @@
         <v>23</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>23</v>
@@ -26335,18 +27066,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>12</v>
@@ -26364,7 +27095,7 @@
         <v>23</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>23</v>
@@ -26400,18 +27131,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>12</v>
@@ -26429,7 +27160,7 @@
         <v>23</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>23</v>
@@ -26465,18 +27196,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>12</v>
@@ -26494,7 +27225,7 @@
         <v>23</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>23</v>
@@ -26530,18 +27261,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>12</v>
@@ -26559,7 +27290,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>23</v>
@@ -26595,18 +27326,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>12</v>
@@ -26624,7 +27355,7 @@
         <v>23</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>23</v>
@@ -26660,18 +27391,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>12</v>
@@ -26689,7 +27420,7 @@
         <v>23</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>23</v>
@@ -26725,18 +27456,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>12</v>
@@ -26754,7 +27485,7 @@
         <v>23</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>23</v>
@@ -26790,18 +27521,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>12</v>
@@ -26819,7 +27550,7 @@
         <v>23</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>23</v>
@@ -26855,18 +27586,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>12</v>
@@ -26884,7 +27615,7 @@
         <v>23</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>23</v>
@@ -26920,18 +27651,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>12</v>
@@ -26949,7 +27680,7 @@
         <v>23</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>23</v>
@@ -26985,18 +27716,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>12</v>
@@ -27014,7 +27745,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>23</v>
@@ -27050,18 +27781,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>12</v>
@@ -27079,7 +27810,7 @@
         <v>23</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>23</v>
@@ -27115,18 +27846,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>12</v>
@@ -27144,7 +27875,7 @@
         <v>23</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>23</v>
@@ -27180,18 +27911,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>12</v>
@@ -27209,7 +27940,7 @@
         <v>23</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>23</v>
@@ -27245,18 +27976,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>12</v>
@@ -27274,7 +28005,7 @@
         <v>23</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>23</v>
@@ -27310,18 +28041,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>96</v>
+        <v>223</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>12</v>
@@ -27339,7 +28070,7 @@
         <v>23</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>23</v>
@@ -27375,18 +28106,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>12</v>
@@ -27404,7 +28135,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>23</v>
@@ -27440,18 +28171,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>12</v>
@@ -27469,7 +28200,7 @@
         <v>23</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>23</v>
@@ -27505,18 +28236,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>12</v>
@@ -27534,7 +28265,7 @@
         <v>23</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>23</v>
@@ -27570,18 +28301,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>12</v>
@@ -27599,7 +28330,7 @@
         <v>23</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>23</v>
@@ -27635,18 +28366,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>12</v>
@@ -27664,7 +28395,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>23</v>
@@ -27700,18 +28431,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>12</v>
@@ -27729,7 +28460,7 @@
         <v>23</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>23</v>
@@ -27765,18 +28496,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>12</v>
@@ -27794,7 +28525,7 @@
         <v>23</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>23</v>
@@ -27830,18 +28561,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>12</v>
@@ -27859,7 +28590,7 @@
         <v>23</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>23</v>
@@ -27895,18 +28626,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>12</v>
@@ -27924,7 +28655,7 @@
         <v>23</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>23</v>
@@ -27960,18 +28691,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>12</v>
@@ -27989,7 +28720,7 @@
         <v>23</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>23</v>
@@ -28025,18 +28756,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>12</v>
@@ -28054,7 +28785,7 @@
         <v>23</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>23</v>
@@ -28090,18 +28821,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>12</v>
@@ -28119,7 +28850,7 @@
         <v>23</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>26</v>
@@ -28155,18 +28886,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>12</v>
@@ -28184,7 +28915,7 @@
         <v>23</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>23</v>
@@ -28220,18 +28951,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>12</v>
@@ -28249,7 +28980,7 @@
         <v>23</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>23</v>
@@ -28285,18 +29016,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>12</v>
@@ -28314,7 +29045,7 @@
         <v>23</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>23</v>
@@ -28350,18 +29081,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>12</v>
@@ -28379,7 +29110,7 @@
         <v>23</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>23</v>
@@ -28415,18 +29146,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="147.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>12</v>
@@ -28444,7 +29175,7 @@
         <v>23</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>23</v>
@@ -28480,18 +29211,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>12</v>
@@ -28509,7 +29240,7 @@
         <v>23</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>26</v>
@@ -28545,18 +29276,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>12</v>
@@ -28574,7 +29305,7 @@
         <v>23</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>26</v>
@@ -28610,18 +29341,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>12</v>
@@ -28639,7 +29370,7 @@
         <v>23</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>26</v>
@@ -28675,18 +29406,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="136.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>12</v>
@@ -28704,7 +29435,7 @@
         <v>23</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>26</v>
@@ -28740,18 +29471,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>12</v>
@@ -28769,7 +29500,7 @@
         <v>23</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>26</v>
@@ -28805,18 +29536,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>12</v>
@@ -28834,7 +29565,7 @@
         <v>23</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>23</v>
@@ -28870,18 +29601,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>12</v>
@@ -28899,7 +29630,7 @@
         <v>23</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>23</v>
@@ -28935,18 +29666,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>12</v>
@@ -28964,7 +29695,7 @@
         <v>23</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>23</v>
@@ -29000,18 +29731,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>12</v>
@@ -29029,7 +29760,7 @@
         <v>23</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>23</v>
@@ -29065,18 +29796,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>12</v>
@@ -29094,7 +29825,7 @@
         <v>23</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>23</v>
@@ -29130,18 +29861,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>12</v>
@@ -29159,7 +29890,7 @@
         <v>23</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>23</v>
@@ -29195,18 +29926,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>12</v>
@@ -29224,7 +29955,7 @@
         <v>23</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>23</v>
@@ -29260,18 +29991,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>12</v>
@@ -29289,7 +30020,7 @@
         <v>23</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>23</v>
@@ -29325,18 +30056,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>12</v>
@@ -29354,7 +30085,7 @@
         <v>23</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>23</v>
@@ -29390,18 +30121,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>12</v>
@@ -29419,7 +30150,7 @@
         <v>23</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>23</v>
@@ -29455,18 +30186,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>12</v>
@@ -29484,7 +30215,7 @@
         <v>23</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>23</v>
@@ -29520,18 +30251,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>12</v>
@@ -29549,7 +30280,7 @@
         <v>23</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>23</v>
@@ -29585,18 +30316,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>12</v>
@@ -29614,7 +30345,7 @@
         <v>23</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>23</v>
@@ -29650,18 +30381,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>12</v>
@@ -29679,7 +30410,7 @@
         <v>23</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>23</v>
@@ -29715,18 +30446,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>12</v>
@@ -29744,7 +30475,7 @@
         <v>23</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>23</v>
@@ -29780,18 +30511,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>176</v>
+        <v>261</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>12</v>
@@ -29809,7 +30540,7 @@
         <v>23</v>
       </c>
       <c r="J69" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>23</v>
@@ -29845,18 +30576,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>12</v>
@@ -29874,7 +30605,7 @@
         <v>23</v>
       </c>
       <c r="J70" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>23</v>
@@ -29910,18 +30641,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>12</v>
@@ -29939,7 +30670,7 @@
         <v>23</v>
       </c>
       <c r="J71" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>23</v>
@@ -29975,18 +30706,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="192.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>12</v>
@@ -30004,7 +30735,7 @@
         <v>23</v>
       </c>
       <c r="J72" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>23</v>
@@ -30040,18 +30771,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>12</v>
@@ -30069,7 +30800,7 @@
         <v>23</v>
       </c>
       <c r="J73" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>23</v>
@@ -30105,18 +30836,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>12</v>
@@ -30134,7 +30865,7 @@
         <v>23</v>
       </c>
       <c r="J74" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>23</v>
@@ -30170,18 +30901,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>12</v>
@@ -30199,7 +30930,7 @@
         <v>23</v>
       </c>
       <c r="J75" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>23</v>
@@ -30235,18 +30966,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>12</v>
@@ -30264,7 +30995,7 @@
         <v>23</v>
       </c>
       <c r="J76" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>23</v>
@@ -30300,18 +31031,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>12</v>
@@ -30329,7 +31060,7 @@
         <v>23</v>
       </c>
       <c r="J77" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>23</v>
@@ -30365,18 +31096,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>12</v>
@@ -30394,7 +31125,7 @@
         <v>23</v>
       </c>
       <c r="J78" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>23</v>
@@ -30430,18 +31161,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>12</v>
@@ -30459,7 +31190,7 @@
         <v>23</v>
       </c>
       <c r="J79" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>23</v>
@@ -30495,18 +31226,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>12</v>
@@ -30524,7 +31255,7 @@
         <v>23</v>
       </c>
       <c r="J80" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>23</v>
@@ -30560,18 +31291,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>12</v>
@@ -30589,7 +31320,7 @@
         <v>23</v>
       </c>
       <c r="J81" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>23</v>
@@ -30625,18 +31356,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="181.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>12</v>
@@ -30654,7 +31385,7 @@
         <v>23</v>
       </c>
       <c r="J82" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>23</v>
@@ -30690,18 +31421,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="170.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>12</v>
@@ -30719,7 +31450,7 @@
         <v>23</v>
       </c>
       <c r="J83" s="5" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>23</v>
@@ -30779,11 +31510,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30856,13 +31585,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>12</v>
@@ -30921,13 +31650,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>12</v>
@@ -30986,13 +31715,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>12</v>
@@ -31051,13 +31780,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>12</v>
@@ -31116,13 +31845,13 @@
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>12</v>
@@ -31181,13 +31910,13 @@
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>12</v>
@@ -31246,13 +31975,13 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>12</v>
@@ -31311,13 +32040,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>12</v>
@@ -31376,13 +32105,13 @@
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>12</v>
@@ -31441,13 +32170,13 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>203</v>
+        <v>286</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>12</v>
@@ -31506,13 +32235,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>12</v>
@@ -31571,13 +32300,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>12</v>
@@ -31636,13 +32365,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>12</v>
@@ -31701,13 +32430,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>12</v>
@@ -31766,13 +32495,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>12</v>
@@ -31831,13 +32560,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>12</v>
@@ -31896,13 +32625,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>12</v>
@@ -31961,13 +32690,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>12</v>
@@ -32026,13 +32755,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>12</v>
@@ -32091,13 +32820,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>12</v>
@@ -32156,13 +32885,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>12</v>
@@ -32221,13 +32950,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>12</v>
@@ -32286,13 +33015,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>12</v>
@@ -32351,13 +33080,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>12</v>
@@ -32416,13 +33145,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>12</v>
@@ -32481,13 +33210,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>12</v>
@@ -32546,13 +33275,13 @@
         <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>12</v>
@@ -32611,13 +33340,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>12</v>
@@ -32676,13 +33405,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>12</v>
@@ -32741,13 +33470,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>12</v>
@@ -32806,13 +33535,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>12</v>
@@ -32871,13 +33600,13 @@
         <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>12</v>
@@ -32936,13 +33665,13 @@
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>12</v>
@@ -33001,13 +33730,13 @@
         <v>21</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>12</v>
@@ -33066,13 +33795,13 @@
         <v>21</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>12</v>
@@ -33131,13 +33860,13 @@
         <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>12</v>
@@ -33196,13 +33925,13 @@
         <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>12</v>
@@ -33261,13 +33990,13 @@
         <v>21</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>12</v>
@@ -33326,13 +34055,13 @@
         <v>21</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>12</v>
@@ -33391,13 +34120,13 @@
         <v>21</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>12</v>
@@ -33456,13 +34185,13 @@
         <v>21</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>12</v>
@@ -33521,13 +34250,13 @@
         <v>21</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>12</v>
@@ -33586,13 +34315,13 @@
         <v>21</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>12</v>
@@ -33651,13 +34380,13 @@
         <v>21</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>12</v>
@@ -33716,13 +34445,13 @@
         <v>21</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>12</v>
@@ -33781,13 +34510,13 @@
         <v>21</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>12</v>
@@ -33846,13 +34575,13 @@
         <v>21</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>240</v>
+        <v>323</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>12</v>
@@ -33911,13 +34640,13 @@
         <v>21</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>12</v>
@@ -33976,13 +34705,13 @@
         <v>21</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>242</v>
+        <v>325</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>12</v>
@@ -34041,13 +34770,13 @@
         <v>21</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>243</v>
+        <v>326</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>12</v>
@@ -34106,13 +34835,13 @@
         <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>12</v>
@@ -34171,13 +34900,13 @@
         <v>21</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>12</v>
@@ -34236,13 +34965,13 @@
         <v>21</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>246</v>
+        <v>329</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>12</v>
@@ -34301,13 +35030,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>12</v>
@@ -34366,13 +35095,13 @@
         <v>21</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>12</v>
@@ -34431,13 +35160,13 @@
         <v>21</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>12</v>
@@ -34496,13 +35225,13 @@
         <v>21</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>12</v>
@@ -34561,13 +35290,13 @@
         <v>21</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>251</v>
+        <v>334</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>12</v>
@@ -34626,13 +35355,13 @@
         <v>21</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>252</v>
+        <v>335</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>12</v>
@@ -34691,13 +35420,13 @@
         <v>21</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>12</v>
@@ -34756,13 +35485,13 @@
         <v>21</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>12</v>
@@ -34821,13 +35550,13 @@
         <v>21</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>12</v>
@@ -34886,13 +35615,13 @@
         <v>21</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>12</v>
@@ -34951,13 +35680,13 @@
         <v>21</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>12</v>
@@ -35016,13 +35745,13 @@
         <v>21</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>12</v>
@@ -35081,13 +35810,13 @@
         <v>21</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>12</v>
@@ -35146,13 +35875,13 @@
         <v>21</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>12</v>
@@ -35211,13 +35940,13 @@
         <v>21</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>12</v>
@@ -35276,13 +36005,13 @@
         <v>21</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>262</v>
+        <v>345</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>12</v>
@@ -35341,13 +36070,13 @@
         <v>21</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>263</v>
+        <v>346</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>12</v>
@@ -35406,13 +36135,13 @@
         <v>21</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>12</v>
@@ -35471,13 +36200,13 @@
         <v>21</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>12</v>
@@ -35536,13 +36265,13 @@
         <v>21</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>12</v>
@@ -35601,13 +36330,13 @@
         <v>21</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>12</v>
@@ -35666,13 +36395,13 @@
         <v>21</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>12</v>
@@ -35731,13 +36460,13 @@
         <v>21</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>12</v>
@@ -35796,13 +36525,13 @@
         <v>21</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>12</v>
@@ -35861,13 +36590,13 @@
         <v>21</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>12</v>
@@ -35926,13 +36655,13 @@
         <v>21</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>12</v>
@@ -35991,13 +36720,13 @@
         <v>21</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>273</v>
+        <v>356</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>12</v>
@@ -36056,13 +36785,13 @@
         <v>21</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>12</v>
@@ -36121,13 +36850,13 @@
         <v>21</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>12</v>
@@ -36205,7 +36934,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36278,13 +37009,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>12</v>
@@ -36343,13 +37074,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>12</v>
@@ -36408,13 +37139,13 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>12</v>
@@ -36473,13 +37204,13 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>279</v>
+        <v>362</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>12</v>
@@ -36538,13 +37269,13 @@
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>12</v>
@@ -36603,13 +37334,13 @@
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>281</v>
+        <v>364</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>12</v>
@@ -36668,13 +37399,13 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>282</v>
+        <v>365</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>12</v>
@@ -36733,13 +37464,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>12</v>
@@ -36798,13 +37529,13 @@
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>12</v>
@@ -36863,13 +37594,13 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>285</v>
+        <v>368</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>12</v>
@@ -36928,13 +37659,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>286</v>
+        <v>369</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>12</v>
@@ -36993,13 +37724,13 @@
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>12</v>
@@ -37058,13 +37789,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>12</v>
@@ -37123,13 +37854,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>289</v>
+        <v>372</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>12</v>
@@ -37188,13 +37919,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>290</v>
+        <v>373</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>12</v>
@@ -37253,13 +37984,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>291</v>
+        <v>374</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>12</v>
@@ -37318,13 +38049,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>292</v>
+        <v>375</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>12</v>
@@ -37383,13 +38114,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>12</v>
@@ -37448,13 +38179,13 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>12</v>
@@ -37513,13 +38244,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>12</v>
@@ -37578,13 +38309,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>296</v>
+        <v>379</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>12</v>
@@ -37643,13 +38374,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>297</v>
+        <v>380</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>12</v>
@@ -37708,13 +38439,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>298</v>
+        <v>381</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>12</v>
@@ -37773,13 +38504,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>299</v>
+        <v>382</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>12</v>
@@ -37838,13 +38569,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>12</v>
@@ -37903,13 +38634,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>301</v>
+        <v>384</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>12</v>
@@ -37968,13 +38699,13 @@
         <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>302</v>
+        <v>385</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>12</v>
@@ -38033,13 +38764,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>303</v>
+        <v>386</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>12</v>
@@ -38098,13 +38829,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>304</v>
+        <v>387</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>12</v>
@@ -38163,13 +38894,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>305</v>
+        <v>388</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>12</v>
@@ -38228,13 +38959,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>306</v>
+        <v>389</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>12</v>
@@ -38293,13 +39024,13 @@
         <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>307</v>
+        <v>390</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>12</v>
@@ -38358,13 +39089,13 @@
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>308</v>
+        <v>391</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>12</v>
@@ -38423,13 +39154,13 @@
         <v>21</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>309</v>
+        <v>392</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>12</v>
@@ -38488,13 +39219,13 @@
         <v>21</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>310</v>
+        <v>393</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>12</v>
@@ -38553,13 +39284,13 @@
         <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>311</v>
+        <v>394</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>12</v>
@@ -38618,13 +39349,13 @@
         <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>12</v>
@@ -38683,13 +39414,13 @@
         <v>21</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>313</v>
+        <v>396</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>12</v>
@@ -38748,13 +39479,13 @@
         <v>21</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>12</v>
@@ -38813,13 +39544,13 @@
         <v>21</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>12</v>
@@ -38878,13 +39609,13 @@
         <v>21</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>12</v>
@@ -38943,13 +39674,13 @@
         <v>21</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>317</v>
+        <v>400</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>12</v>
@@ -39008,13 +39739,13 @@
         <v>21</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>318</v>
+        <v>401</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>12</v>
@@ -39073,13 +39804,13 @@
         <v>21</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>319</v>
+        <v>402</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>12</v>
@@ -39138,13 +39869,13 @@
         <v>21</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>12</v>
@@ -39203,13 +39934,13 @@
         <v>21</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>12</v>
@@ -39268,13 +39999,13 @@
         <v>21</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>12</v>
@@ -39333,13 +40064,13 @@
         <v>21</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>12</v>
@@ -39398,13 +40129,13 @@
         <v>21</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>324</v>
+        <v>407</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>12</v>
@@ -39463,13 +40194,13 @@
         <v>21</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>325</v>
+        <v>408</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>12</v>
@@ -39528,13 +40259,13 @@
         <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>326</v>
+        <v>409</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>12</v>
@@ -39593,13 +40324,13 @@
         <v>21</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>12</v>
@@ -39658,13 +40389,13 @@
         <v>21</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>328</v>
+        <v>411</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>12</v>
@@ -39723,13 +40454,13 @@
         <v>21</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>329</v>
+        <v>412</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>12</v>
@@ -39788,13 +40519,13 @@
         <v>21</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>330</v>
+        <v>413</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>12</v>
@@ -39853,13 +40584,13 @@
         <v>21</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>331</v>
+        <v>414</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>12</v>
@@ -39918,13 +40649,13 @@
         <v>21</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>332</v>
+        <v>415</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>12</v>
@@ -39983,13 +40714,13 @@
         <v>21</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>12</v>
@@ -40048,13 +40779,13 @@
         <v>21</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>334</v>
+        <v>417</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>12</v>
@@ -40113,13 +40844,13 @@
         <v>21</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>335</v>
+        <v>418</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>12</v>
@@ -40178,13 +40909,13 @@
         <v>21</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>336</v>
+        <v>419</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>12</v>
@@ -40243,13 +40974,13 @@
         <v>21</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>337</v>
+        <v>420</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>12</v>
@@ -40308,13 +41039,13 @@
         <v>21</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>338</v>
+        <v>421</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>12</v>
@@ -40373,13 +41104,13 @@
         <v>21</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>339</v>
+        <v>422</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>12</v>
@@ -40438,13 +41169,13 @@
         <v>21</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>340</v>
+        <v>423</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>12</v>
@@ -40503,13 +41234,13 @@
         <v>21</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>341</v>
+        <v>424</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>12</v>
@@ -40568,13 +41299,13 @@
         <v>21</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>12</v>
@@ -40633,13 +41364,13 @@
         <v>21</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>343</v>
+        <v>426</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>12</v>
@@ -40698,13 +41429,13 @@
         <v>21</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>12</v>
@@ -40763,13 +41494,13 @@
         <v>21</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>345</v>
+        <v>428</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>12</v>
@@ -40828,13 +41559,13 @@
         <v>21</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>346</v>
+        <v>429</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>12</v>
@@ -40893,13 +41624,13 @@
         <v>21</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>347</v>
+        <v>430</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>12</v>
@@ -40958,13 +41689,13 @@
         <v>21</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>12</v>
@@ -41023,13 +41754,13 @@
         <v>21</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>12</v>
@@ -41088,13 +41819,13 @@
         <v>21</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>12</v>
@@ -41153,13 +41884,13 @@
         <v>21</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>351</v>
+        <v>434</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>12</v>
@@ -41218,13 +41949,13 @@
         <v>21</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>352</v>
+        <v>435</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>12</v>
@@ -41283,13 +42014,13 @@
         <v>21</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>353</v>
+        <v>436</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>12</v>
@@ -41348,13 +42079,13 @@
         <v>21</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>12</v>
@@ -41413,13 +42144,13 @@
         <v>21</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>355</v>
+        <v>438</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E81" s="2" t="n">
         <v>12</v>
@@ -41478,13 +42209,13 @@
         <v>21</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>356</v>
+        <v>439</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>12</v>
@@ -41543,13 +42274,13 @@
         <v>21</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>357</v>
+        <v>440</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="E83" s="2" t="n">
         <v>12</v>
@@ -41627,13 +42358,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="14.3112244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41836,7 +42567,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>358</v>
+        <v>441</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -42551,7 +43282,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>359</v>
+        <v>442</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
@@ -42681,7 +43412,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>360</v>
+        <v>443</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
@@ -42811,7 +43542,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -43071,7 +43802,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>362</v>
+        <v>445</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
@@ -43851,7 +44582,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>363</v>
+        <v>446</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>23</v>
@@ -43981,7 +44712,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>364</v>
+        <v>447</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>23</v>
@@ -44111,7 +44842,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>365</v>
+        <v>448</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>23</v>
@@ -44241,7 +44972,7 @@
         <v>21</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>366</v>
+        <v>449</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>23</v>
@@ -44371,7 +45102,7 @@
         <v>21</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
@@ -45216,7 +45947,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>23</v>
@@ -45931,7 +46662,7 @@
         <v>21</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>369</v>
+        <v>452</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>23</v>
@@ -46061,7 +46792,7 @@
         <v>21</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>370</v>
+        <v>453</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>23</v>
@@ -46191,7 +46922,7 @@
         <v>21</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>23</v>
@@ -46321,7 +47052,7 @@
         <v>21</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>23</v>
@@ -46451,7 +47182,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>373</v>
+        <v>456</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>23</v>
@@ -47491,7 +48222,7 @@
         <v>21</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>374</v>
+        <v>457</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>23</v>
@@ -47556,7 +48287,7 @@
         <v>21</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>23</v>
@@ -47621,7 +48352,7 @@
         <v>21</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>376</v>
+        <v>459</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>23</v>
@@ -47686,7 +48417,7 @@
         <v>21</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>377</v>
+        <v>460</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>23</v>
@@ -47751,7 +48482,7 @@
         <v>21</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>378</v>
+        <v>461</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>23</v>
@@ -48596,7 +49327,7 @@
         <v>21</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>379</v>
+        <v>462</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
@@ -49311,7 +50042,7 @@
         <v>21</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>380</v>
+        <v>463</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>23</v>
@@ -49441,7 +50172,7 @@
         <v>21</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>381</v>
+        <v>464</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>23</v>
@@ -49571,7 +50302,7 @@
         <v>21</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>382</v>
+        <v>465</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>23</v>
@@ -49701,7 +50432,7 @@
         <v>21</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>383</v>
+        <v>466</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>23</v>
@@ -49831,7 +50562,7 @@
         <v>21</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>384</v>
+        <v>467</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>23</v>
@@ -50611,7 +51342,7 @@
         <v>21</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>385</v>
+        <v>468</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>23</v>
@@ -50741,7 +51472,7 @@
         <v>21</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>23</v>
@@ -50871,7 +51602,7 @@
         <v>21</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>387</v>
+        <v>470</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>23</v>
@@ -51001,7 +51732,7 @@
         <v>21</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>23</v>
@@ -51131,7 +51862,7 @@
         <v>21</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>23</v>
@@ -51976,7 +52707,7 @@
         <v>21</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>390</v>
+        <v>473</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>23</v>
@@ -52691,7 +53422,7 @@
         <v>21</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>391</v>
+        <v>474</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>23</v>
@@ -52821,7 +53552,7 @@
         <v>21</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>23</v>
@@ -52951,7 +53682,7 @@
         <v>21</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>393</v>
+        <v>476</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>23</v>
@@ -53081,7 +53812,7 @@
         <v>21</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>23</v>
@@ -53211,7 +53942,7 @@
         <v>21</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>395</v>
+        <v>478</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>23</v>
@@ -54251,7 +54982,7 @@
         <v>21</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>23</v>
@@ -54316,7 +55047,7 @@
         <v>21</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>23</v>
@@ -54381,7 +55112,7 @@
         <v>21</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>23</v>
@@ -54446,7 +55177,7 @@
         <v>21</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>399</v>
+        <v>482</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>23</v>
@@ -54511,7 +55242,7 @@
         <v>21</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>400</v>
+        <v>483</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>23</v>
@@ -55245,18 +55976,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>401</v>
+        <v>484</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>402</v>
+        <v>485</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -55283,10 +56015,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55321,7 +56054,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>404</v>
+        <v>487</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>16</v>
@@ -55344,7 +56077,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>405</v>
+        <v>488</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
@@ -55394,7 +56127,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>406</v>
+        <v>489</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -55444,7 +56177,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
@@ -55494,7 +56227,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>408</v>
+        <v>491</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
@@ -55544,7 +56277,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>409</v>
+        <v>492</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
@@ -55594,7 +56327,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>410</v>
+        <v>493</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
@@ -55644,7 +56377,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>411</v>
+        <v>494</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>23</v>
@@ -55694,7 +56427,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>412</v>
+        <v>495</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -55744,7 +56477,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>413</v>
+        <v>496</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
@@ -55794,7 +56527,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>414</v>
+        <v>497</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -55844,7 +56577,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
@@ -55894,7 +56627,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
@@ -55944,7 +56677,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>23</v>
@@ -55994,7 +56727,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>23</v>
@@ -56044,7 +56777,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>23</v>
@@ -56094,7 +56827,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>23</v>
@@ -56144,7 +56877,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>23</v>
@@ -56194,7 +56927,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>23</v>
@@ -56244,7 +56977,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
@@ -56294,7 +57027,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>23</v>
@@ -56344,7 +57077,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>425</v>
+        <v>508</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>23</v>
@@ -56394,7 +57127,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>426</v>
+        <v>509</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>23</v>
@@ -56444,7 +57177,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>427</v>
+        <v>510</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>23</v>
@@ -56494,7 +57227,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>23</v>
@@ -56544,7 +57277,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>429</v>
+        <v>512</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>23</v>
@@ -56594,7 +57327,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>430</v>
+        <v>513</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>23</v>
@@ -56644,7 +57377,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>23</v>
@@ -56694,7 +57427,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>23</v>
@@ -56744,7 +57477,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>23</v>
@@ -56794,7 +57527,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>23</v>
@@ -56844,7 +57577,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>23</v>
@@ -56894,7 +57627,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>23</v>
@@ -56944,7 +57677,7 @@
         <v>21</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>432</v>
+        <v>515</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>23</v>
@@ -56994,7 +57727,7 @@
         <v>21</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>433</v>
+        <v>516</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>23</v>
@@ -57044,7 +57777,7 @@
         <v>21</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>434</v>
+        <v>517</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>23</v>
@@ -57094,7 +57827,7 @@
         <v>21</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>23</v>
@@ -57144,7 +57877,7 @@
         <v>21</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>436</v>
+        <v>519</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>23</v>
@@ -57194,7 +57927,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>23</v>
@@ -57244,7 +57977,7 @@
         <v>21</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>438</v>
+        <v>521</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>23</v>
@@ -57294,7 +58027,7 @@
         <v>21</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>439</v>
+        <v>522</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>23</v>
@@ -57344,7 +58077,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>440</v>
+        <v>523</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>23</v>
@@ -57394,7 +58127,7 @@
         <v>21</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>441</v>
+        <v>524</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>23</v>
@@ -57444,7 +58177,7 @@
         <v>21</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>406</v>
+        <v>489</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>23</v>
@@ -57494,7 +58227,7 @@
         <v>21</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>23</v>
@@ -57544,7 +58277,7 @@
         <v>21</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>23</v>
@@ -57594,7 +58327,7 @@
         <v>21</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>23</v>
@@ -57644,7 +58377,7 @@
         <v>21</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>23</v>
@@ -57694,7 +58427,7 @@
         <v>21</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>411</v>
+        <v>494</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>23</v>
@@ -57744,7 +58477,7 @@
         <v>21</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>412</v>
+        <v>495</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>23</v>
@@ -57794,7 +58527,7 @@
         <v>21</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>413</v>
+        <v>496</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>23</v>
@@ -57844,7 +58577,7 @@
         <v>21</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>414</v>
+        <v>497</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>23</v>
@@ -57894,7 +58627,7 @@
         <v>21</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>23</v>
@@ -57944,7 +58677,7 @@
         <v>21</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>23</v>
@@ -57994,7 +58727,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>23</v>
@@ -58044,7 +58777,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>23</v>
@@ -58094,7 +58827,7 @@
         <v>21</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>23</v>
@@ -58144,7 +58877,7 @@
         <v>21</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>23</v>
@@ -58194,7 +58927,7 @@
         <v>21</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>23</v>
@@ -58244,7 +58977,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>23</v>
@@ -58294,7 +59027,7 @@
         <v>21</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>23</v>
@@ -58344,7 +59077,7 @@
         <v>21</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>23</v>
@@ -58394,7 +59127,7 @@
         <v>21</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>425</v>
+        <v>508</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>23</v>
@@ -58444,7 +59177,7 @@
         <v>21</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>426</v>
+        <v>509</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>23</v>
@@ -58494,7 +59227,7 @@
         <v>21</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>427</v>
+        <v>510</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>23</v>
@@ -58544,7 +59277,7 @@
         <v>21</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>23</v>
@@ -58594,7 +59327,7 @@
         <v>21</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>429</v>
+        <v>512</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>23</v>
@@ -58644,7 +59377,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>430</v>
+        <v>513</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>23</v>
@@ -58694,7 +59427,7 @@
         <v>21</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>23</v>
@@ -58744,7 +59477,7 @@
         <v>21</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>23</v>
@@ -58794,7 +59527,7 @@
         <v>21</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>23</v>
@@ -58844,7 +59577,7 @@
         <v>21</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>23</v>
@@ -58894,7 +59627,7 @@
         <v>21</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>23</v>
@@ -58944,7 +59677,7 @@
         <v>21</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>23</v>
@@ -58994,7 +59727,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>432</v>
+        <v>515</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>23</v>
@@ -59044,7 +59777,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>433</v>
+        <v>516</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>23</v>
@@ -59094,7 +59827,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>434</v>
+        <v>517</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>23</v>
@@ -59144,7 +59877,7 @@
         <v>21</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>23</v>
@@ -59194,7 +59927,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>436</v>
+        <v>519</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>23</v>
@@ -59244,7 +59977,7 @@
         <v>21</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>23</v>
@@ -59294,7 +60027,7 @@
         <v>21</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>438</v>
+        <v>521</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>23</v>
@@ -59344,7 +60077,7 @@
         <v>21</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>439</v>
+        <v>522</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>23</v>
@@ -59394,7 +60127,7 @@
         <v>21</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>440</v>
+        <v>523</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>23</v>

--- a/src/main/resources/TestData/Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Leave_Scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="Old_Scenarios" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">All_Scenarios!$A$1:$U$247</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">All_Without_Probation!$A$1:$U$83</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -4822,6 +4823,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4829,19 +4834,19 @@
   </sheetPr>
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B148" activeCellId="0" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20900,6 +20905,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U247"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -20907,6 +20913,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20923,9 +20930,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25096,21 +25104,21 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="0" topLeftCell="D83" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+      <selection pane="topRight" activeCell="C96" activeCellId="0" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30526,19 +30534,19 @@
   </sheetPr>
   <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A164" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E164" activeCellId="0" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41290,13 +41298,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46718,9 +46726,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52142,10 +52150,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57567,9 +57576,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62991,13 +62998,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.5"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -76609,9 +76616,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/TestData/Leave_Scenarios.xlsx
+++ b/src/main/resources/TestData/Leave_Scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="All_Scenarios" sheetId="1" state="visible" r:id="rId2"/>
@@ -5327,19 +5327,19 @@
   </sheetPr>
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A247" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C257" activeCellId="0" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21421,7 +21421,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21459,10 +21460,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25633,15 +25635,13 @@
   </sheetPr>
   <dimension ref="A1:U165"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36395,13 +36395,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41823,13 +41823,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52581,13 +52581,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58003,15 +58003,15 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K83" activeCellId="0" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -63433,11 +63433,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="102.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -68859,7 +68857,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4897959183674"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -74281,13 +74281,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
